--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="アイテムデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">ItemUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetUuid</t>
   </si>
   <si>
     <t xml:space="preserve">PacketItemSubtract</t>
@@ -339,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,6 +394,28 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -421,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +511,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="アイテムデータ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログイン時アイテム通知" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="アイテム使用" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="アイテム消費" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="アイテム破棄リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="アイテム追加" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="アイテム消費" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="アイテム破棄リクエスト" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketItemAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemAdd</t>
   </si>
   <si>
     <t xml:space="preserve">PacketItemSubtract</t>
@@ -350,7 +357,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -430,6 +437,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -452,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -527,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="アイテムデータ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ログイン時アイテム通知" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="アイテム使用" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="アイテム追加" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="アイテム消費" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="アイテム破棄リクエスト" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ログイン時アイテムリスト通知" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ログイン時アイテムショートカット通知" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="アイテム使用" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="アイテム追加" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="アイテム消費" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="アイテム破棄リクエスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="アイテムショートカット保存リクエスト" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -75,6 +77,18 @@
     <t xml:space="preserve">Items</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketItemShortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemShortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketItemUse</t>
   </si>
   <si>
@@ -106,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve">ItemSubtractRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSaveItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveItemShortcutRequest</t>
   </si>
 </sst>
 </file>
@@ -355,6 +375,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -373,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -436,14 +531,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -459,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,7 +606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -534,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -609,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,6 +743,81 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="アイテムデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="アイテム消費" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="アイテム破棄リクエスト" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="アイテムショートカット保存リクエスト" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="アイテムショートカット保存結果" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -126,6 +127,27 @@
   </si>
   <si>
     <t xml:space="preserve">SaveItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSaveItemShortcutResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveItemShortcutResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ENUM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
   </si>
 </sst>
 </file>
@@ -763,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -829,4 +851,90 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -858,10 +858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -928,6 +928,28 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Packet/PacketData/Item.xlsx
+++ b/Packet/PacketData/Item.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -45,9 +45,15 @@
     <t xml:space="preserve">ItemId</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテム数</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
+    <t xml:space="preserve">個数</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketItemList</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
     <t xml:space="preserve">Items</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketItemShortcut</t>
   </si>
   <si>
@@ -87,24 +96,39 @@
     <t xml:space="preserve">ItemId1</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ１</t>
+  </si>
+  <si>
     <t xml:space="preserve">ItemId2</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ２</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketItemUse</t>
   </si>
   <si>
     <t xml:space="preserve">ItemUse</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">TargetType</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットタイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TargetUuid</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットのＵＵＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketItemAdd</t>
   </si>
   <si>
@@ -144,10 +168,19 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果</t>
   </si>
 </sst>
 </file>
@@ -257,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,6 +321,9 @@
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -297,7 +333,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -316,10 +355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,39 +373,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -375,10 +414,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -397,10 +439,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,23 +457,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,7 +498,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,23 +538,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,16 +567,22 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +593,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -558,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,23 +633,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,6 +662,9 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -614,7 +674,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +696,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,23 +714,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,6 +743,9 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -689,7 +755,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -726,23 +795,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,6 +824,9 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -764,7 +836,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,23 +876,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +903,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +917,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +939,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,45 +957,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,10 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +1026,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +1040,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
